--- a/medicine/Œil et vue/EN_166/EN_166.xlsx
+++ b/medicine/Œil et vue/EN_166/EN_166.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La norme EN 166 Protection individuelle de l'œil - Spécifications, est une norme à utiliser pour créer et vérifier les dispositifs de protection des yeux.
 La norme EN 166 est publiée pour la première fois en 1995.
-La norme EN 166 est traduite en français, devenant ainsi la norme NF EN 166[1][source insuffisante].
+La norme EN 166 est traduite en français, devenant ainsi la norme NF EN 166[source insuffisante].
 Avec l'urgence sanitaire Covid-19, la norme EN 166 est devenue l'une des normes les plus utilisées pour la qualification d'équipement de protection individuelle[réf. nécessaire]
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Exigences principales de la norme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La EN 166 adopte le schéma en 10 chapitres dans la division suivante :
 Objectif
@@ -571,6 +585,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
